--- a/interiorinfo.xlsx
+++ b/interiorinfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97ce27d4fc196741/바탕 화면/interiorbara_sql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{3659A8C8-711C-4365-905F-8C0011834842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE2B41FE-93F8-406E-BED9-01F6B004B4B3}"/>
+  <xr:revisionPtr revIDLastSave="270" documentId="8_{3659A8C8-711C-4365-905F-8C0011834842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7506E81-9E76-47E0-8311-DFE9A3C3D5FB}"/>
   <bookViews>
-    <workbookView xWindow="31020" yWindow="435" windowWidth="25185" windowHeight="15285" xr2:uid="{88FA12BE-D73E-44D1-B7B5-5BCCD1D4F99A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88FA12BE-D73E-44D1-B7B5-5BCCD1D4F99A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="425">
   <si>
-    <t>bh_NOTICE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BH_INTRO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1201,316 +1197,420 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>블리자인: "2024년 봄 인테리어 트렌드를 만나보세요! 새로운 디자인 컨셉과 함께 리모델링 프로젝트 시작하기."</t>
-  </si>
-  <si>
-    <t>홈 루덴스: "지금 상담 예약하시고, 전문가와 함께하는 무료 인테리어 컨설팅 기회를 잡으세요!"</t>
-  </si>
-  <si>
-    <t>디자인이음새: "환경을 생각하는 지속 가능한 인테리어 솔루션을 제안합니다. 우리의 그린 인테리어 옵션을 확인하세요."</t>
-  </si>
-  <si>
-    <t>필로스디자인: "맞춤형 가구 제작 서비스 출시! 개인의 취향을 반영한 디자인으로 공간을 새롭게 꾸며보세요."</t>
-  </si>
-  <si>
-    <t>디자인,성실한: "우리의 성실한 작업이 만든 결과물을 보러 오세요. 포트폴리오 업데이트 확인하기."</t>
-  </si>
-  <si>
-    <t>한샘리하우스: "한샘리하우스의 새로운 협력 브랜드를 소개합니다! 더 많은 선택과 더 좋은 품질을 경험하세요."</t>
-  </si>
-  <si>
-    <t>티엠디자인: "2024년도 티엠디자인의 인기 디자인 트렌드 발표! 올해의 색상과 스타일을 미리 확인해 보세요."</t>
-  </si>
-  <si>
-    <t>채운디자인: "실내외 공간의 완벽한 변신을 위한 채운디자인의 봄 프로모션을 놓치지 마세요!"</t>
-  </si>
-  <si>
-    <t>홈새로이: "전문가와 함께하는 집 꾸미기 워크샵에 참여하세요. 신청은 여기서!"</t>
-  </si>
-  <si>
-    <t>홈시크디자인: "홈시크디자인과 함께하는 리노베이션으로 고급스러운 집안 분위기를 연출하세요. 프로젝트 시작하기."</t>
-  </si>
-  <si>
-    <t>디자인토미: "작은 공간도 토미만의 아이디어로 넓게! 스마트 솔루션을 만나보세요."</t>
-  </si>
-  <si>
-    <t>디자인파란: "디자인파란의 새로운 시즌 리미티드 에디션 라인업을 만나보세요. 한정 수량 제공 중!"</t>
-  </si>
-  <si>
-    <t>리바트: "리바트와 함께하는 집안 재정비. 신규 가입 고객을 위한 특별 할인 이벤트!"</t>
-  </si>
-  <si>
-    <t>디자인덕: "이달의 디자인덕 포트폴리오 감상하기. 고객님의 공간도 저희가 변신시켜 드립니다."</t>
-  </si>
-  <si>
-    <t>올리브인테리어: "올리브인테리어의 신규 오피스 라인 출시! 업무 공간을 위한 현대적인 디자인을 체험하세요."</t>
-  </si>
-  <si>
-    <t>공간이좋다: "공간을 최적화하는 특별한 디자인 솔루션. 우리의 전문성을 경험해 보세요."</t>
-  </si>
-  <si>
-    <t>후스인: "후스인의 전통과 현대가 만나는 디자인. 한국적인 미를 강조한 인테리어를 만나보세요."</t>
-  </si>
-  <si>
-    <t>케일디자인: "건강을 생각하는 케일디자인의 친환경 소재 사용. 우리의 커밋먼트를 확인해 보세요."</t>
-  </si>
-  <si>
-    <t>에디인테리어: "에디인테리어와 함께하는 맞춤형 홈 스타일링 서비스. 지금 상담 예약하기!"</t>
-  </si>
-  <si>
-    <t>웰가디자인: "웰빙을 위한 인테리어, 웰가디자인이 제안하는 건강한 생활공간."</t>
-  </si>
-  <si>
-    <t>라포르인테리어: "라포르인테리어의 최신 프로젝트를 감상하세요. 우아함과 실용성을 겸비한 디자인의 향연!"</t>
-  </si>
-  <si>
-    <t>아이케이디: "아이케이디와 함께하는 공간 재구성 프로모션. 이번 기회를 놓치지 마세요!"</t>
-  </si>
-  <si>
-    <t>모드니인테리어: "모드니인테리어의 가을 시즌 특별 할인. 이번 주말 방문 예약 시 특별 선물이 기다립니다!"</t>
-  </si>
-  <si>
-    <t>미라클인테리어: "미라클인테리어에서 제공하는 한정판 디자인 제품을 만나보세요. 독특한 공간을 위한 독특한 선택!"</t>
-  </si>
-  <si>
-    <t>디자인큐원: "디자인큐원의 새로운 라이프스타일 콜렉션 출시. 공간을 더 특별하게 만들어줄 디자인을 체험하세요."</t>
-  </si>
-  <si>
-    <t>세나클디자인: "세나클디자인과 함께하는 홈 메이크오버. 집안 공간을 새롭게 탈바꿈시킬 시간입니다!"</t>
-  </si>
-  <si>
-    <t>디자인그로우: "디자인그로우의 지속 가능한 인테리어 솔루션. 친환경적인 선택으로 더 나은 내일을 설계하세요."</t>
-  </si>
-  <si>
-    <t>단한집디자인: "단한집디자인의 맞춤형 인테리어 패키지. 이번 달 한정 특가로 제공됩니다!"</t>
-  </si>
-  <si>
-    <t>톤앤무드: "톤앤무드의 새로운 컬러 팔레트로 공간에 생기를 불어넣어 보세요. 지금 컬러 상담 예약하기!"</t>
-  </si>
-  <si>
-    <t>빈채드디자인: "빈채드디자인의 신규 스토어 오픈 기념 이벤트. 방문 고객에게 특별 할인 제공!"</t>
-  </si>
-  <si>
-    <t>예설디자인: "예설디자인의 제한된 시간 동안만 제공되는 전속 디자인 서비스. 예약은 서둘러 주세요!"</t>
-  </si>
-  <si>
-    <t>더패키지: "더패키지로 완성하는 토탈 인테리어 솔루션. 풀 패키지 서비스에 대해 알아보세요."</t>
-  </si>
-  <si>
-    <t>홈앤안목: "홈앤안목과 함께하는 가을 맞이 인테리어 리노베이션. 이번 시즌 한정 할인을 놓치지 마세요!"</t>
-  </si>
-  <si>
-    <t>리빙갤러리: "리빙갤러리에서 선보이는 아트웍 컬렉션. 예술적 감각을 집안 곳곳에 더하세요."</t>
-  </si>
-  <si>
-    <t>디자인하루: "디자인하루의 24시간 디자인 마라톤! 한정된 시간 동안 무료 디자인 상담을 받아보세요."</t>
-  </si>
-  <si>
-    <t>라온디자인: "라온디자인의 신규 포트폴리오 공개. 우리의 최신 프로젝트를 확인하고 영감을 얻으세요."</t>
-  </si>
-  <si>
-    <t>수디자인: "수디자인의 새로운 홈 디자인 컨셉 출시. 현대적 감각의 공간을 경험하세요."</t>
-  </si>
-  <si>
-    <t>카사디자인: "카사디자인과 함께하는 거실 재디자인 프로모션. 한정된 기간 동안만 특별 할인가에 제공됩니다."</t>
-  </si>
-  <si>
-    <t>창대디자인: "창대디자인의 인테리어 디자인 트렌드 세미나. 산업 전문가와 함께하는 무료 웨비나에 등록하세요."</t>
-  </si>
-  <si>
-    <t>인테라스: "인테라스의 신규 런칭 이벤트. 첫 구매 고객에게는 특별 할인을 제공합니다."</t>
-  </si>
-  <si>
-    <t>코어디자인: "코어디자인의 겨울 시즌 신제품 라인업을 만나보세요. 따뜻한 집안 분위기를 위한 디자인 제안."</t>
-  </si>
-  <si>
-    <t>봄인테리어: "봄인테리어에서 선보이는 봄맞이 리프레시 프로모션. 신선하고 화사한 봄 분위기를 느껴보세요."</t>
-  </si>
-  <si>
-    <t>안도: "안도의 전통적인 디자인과 현대적 감각이 만나는 공간. 새로운 디자인 컬렉션을 확인하세요."</t>
-  </si>
-  <si>
-    <t>라베디자인: "라베디자인의 가을 신제품 출시. 감각적인 디자인으로 공간을 업그레이드하세요."</t>
-  </si>
-  <si>
-    <t>디자인쮸들: "디자인쮸들과 함께하는 키즈룸 스페셜 패키지. 아이들의 방을 특별하게 만들어주세요."</t>
-  </si>
-  <si>
-    <t>박지희디자인: "박지희디자인의 프리미엄 디자인 서비스 체험기회. 고객 맞춤형 디자인을 경험해 보세요."</t>
-  </si>
-  <si>
-    <t>에스디자인: "에스디자인의 새로운 홈 오피스 디자인 아이디어. 집에서도 효율적으로 일할 수 있는 공간을 만드세요."</t>
-  </si>
-  <si>
-    <t>정원인테리어: "정원인테리어의 겨울 정원 특별전. 겨울에도 빛나는 실내 정원 디자인을 소개합니다."</t>
-  </si>
-  <si>
-    <t>제스트디자인: "제스트디자인과 함께하는 맞춤형 가구 제작 서비스. 당신만의 공간을 완성하세요."</t>
-  </si>
-  <si>
-    <t>디자인포스: "디자인포스의 무료 홈 스타일링 서비스 체험. 집안을 전문가처럼 꾸미고 싶다면 지금 신청하세요."</t>
-  </si>
-  <si>
-    <t>더라이브러리: "더라이브러리의 아트 &amp; 디자인 책 전시회. 디자인에 대한 영감을 얻을 수 있는 기회!"</t>
-  </si>
-  <si>
-    <t>156스페이스: "156스페이스에서 제공하는 작은 공간을 위한 크리에이티브 솔루션. 공간 활용법을 배워보세요."</t>
-  </si>
-  <si>
-    <t>디자인홈즈: "디자인홈즈의 새로운 홈 인테리어 앱 출시. 앱을 다운로드하고 특별 할인을 받으세요."</t>
-  </si>
-  <si>
-    <t>디자인이후: "디자인이후의 포스트 모던 인테리어 시리즈. 과감하고 실험적인 디자인을 경험하세요."</t>
-  </si>
-  <si>
-    <t>신디자인: "신디자인의 신규 클라이언트를 위한 특별 프로모션. 프로젝트 시작하고 할인 혜택을 누리세요."</t>
-  </si>
-  <si>
-    <t>아크몽스튜디오: "아크몽스튜디오의 전시회 개최 소식. 최신 작업들을 직접 만나볼 수 있는 기회!"</t>
-  </si>
-  <si>
-    <t>더디자인: "더디자인의 연말 감사 이벤트. 올 한 해 동안의 성원에 감사드리며 특별 할인을 제공합니다."</t>
-  </si>
-  <si>
-    <t>리앤씨: "리앤씨와 함께하는 럭셔리 홈 메이크오버. 귀하의 집을 호텔처럼 만들어 드립니다."</t>
-  </si>
-  <si>
-    <t>디티알디: "디티알디의 테크 인테리어 솔루션. 최신 기술을 활용한 집안 꾸미기를 소개합니다."</t>
-  </si>
-  <si>
-    <t>오른인테리어: "오른인테리어의 인테리어 디자인 컨설팅 서비스. 전문가의 조언으로 공간을 최적화하세요."</t>
-  </si>
-  <si>
-    <t>콘크리트301: "콘크리트301과 함께하는 모던 아트 스타일 프로젝트. 독특한 맞춤 인테리어를 경험해 보세요."</t>
-  </si>
-  <si>
-    <t>우일인테리어: "우일인테리어의 신규 분점 오픈 기념 할인 이벤트. 새로운 매장에서 특별한 혜택을 누려보세요."</t>
-  </si>
-  <si>
-    <t>다올디자인: "다올디자인의 한정판 컬렉션 런칭. 이번 시즌에만 만날 수 있는 특별 디자인!"</t>
-  </si>
-  <si>
-    <t>동산인테리어: "동산인테리어의 가을 정원 디자인 서비스. 야외 공간을 더욱 특별하게 만들어 드립니다."</t>
-  </si>
-  <si>
-    <t>아우어디자인: "아우어디자인의 맞춤형 가구 및 인테리어 디자인 서비스. 당신의 공간을 위한 독창적인 솔루션을 제공합니다."</t>
-  </si>
-  <si>
-    <t>주식회사큐브: "큐브의 신규 파트너십과 협력 프로젝트 공개. 더 넓은 범위의 전문 서비스를 제공합니다."</t>
-  </si>
-  <si>
-    <t>포츈디자인: "포츈디자인의 럭셔리 홈 컬렉션 출시. 집안을 럭셔리 리조트로 변모시켜 드립니다."</t>
-  </si>
-  <si>
-    <t>디자인조은: "디자인조은의 신년 맞이 리모델링 패키지. 새해를 새롭게 시작하는 디자인 솔루션을 만나보세요."</t>
-  </si>
-  <si>
-    <t>아룸디자인: "아룸디자인의 인테리어 디자인 워크샵 참여 기회. 실내 디자인 기술을 직접 배워보세요."</t>
-  </si>
-  <si>
-    <t>휴먼인테리어: "휴먼인테리어의 건강하고 편안한 생활공간 만들기. 에코-프렌들리 소재와 디자인을 경험하세요."</t>
-  </si>
-  <si>
-    <t>다람인테리어: "다람인테리어와 함께하는 소형 아파트 인테리어 전문 컨설팅. 작은 공간을 크게 사용하세요."</t>
-  </si>
-  <si>
-    <t>아름하우징: "아름하우징의 시즌 오프 세일. 선택한 인테리어 패키지에 대해 특별 할인 혜택을 제공합니다."</t>
-  </si>
-  <si>
-    <t>가우디디자인: "가우디디자인의 아트 갤러리 시리즈. 예술적 영감을 받은 인테리어를 만나보세요."</t>
-  </si>
-  <si>
-    <t>이룸디자인: "이룸디자인의 맞춤형 공간 해결책. 개인의 요구에 맞춘 독특한 인테리어 솔루션을 제공합니다."</t>
-  </si>
-  <si>
-    <t>한솔하우징: "한솔하우징의 겨울맞이 집꾸미기 이벤트. 집안을 따뜻하게 만들어 줄 디자인 아이템을 확인하세요."</t>
-  </si>
-  <si>
-    <t>디자인그리다: "디자인그리다의 친환경 소재 사용 캠페인. 지속 가능한 소재로 만든 제품을 만나보세요."</t>
-  </si>
-  <si>
-    <t>디자인멜로우: "디자인멜로우의 신제품 라인업 출시. 신선하고 현대적인 디자인으로 새로운 기분을 느껴보세요."</t>
-  </si>
-  <si>
-    <t>전인테리어: "전인테리어의 새로운 프로젝트 소개. 최신 인테리어 트렌드와 함께 제공되는 신제품을 확인하세요."</t>
-  </si>
-  <si>
-    <t>팰리스인테리어: "팰리스인테리어의 프리미엄 인테리어 디자인 서비스. 고급스러움을 더하는 우리의 전문성을 경험하세요."</t>
-  </si>
-  <si>
-    <t>이제디자인: "이제디자인과 함께하는 모던 홈 메이크오버. 고객의 공간을 현대적이고 실용적인 디자인으로 재탄생시키세요."</t>
-  </si>
-  <si>
-    <t>우아인테리어: "우아인테리어의 맞춤형 인테리어 디자인 제안. 개인의 취향을 완벽하게 반영한 공간을 만드세요."</t>
-  </si>
-  <si>
-    <t>리노디자인: "리노디자인의 겨울 신제품 시리즈. 겨울에 어울리는 따뜻하고 아늑한 인테리어를 제공합니다."</t>
-  </si>
-  <si>
-    <t>드림하우스: "드림하우스의 신규 프로젝트 발표. 창의적이고 혁신적인 공간 디자인을 만나보세요."</t>
-  </si>
-  <si>
-    <t>터치홈: "터치홈의 스마트 홈 솔루션. 집안의 편리함을 한층 업그레이드하실 수 있습니다."</t>
-  </si>
-  <si>
-    <t>디엠디자인: "디엠디자인의 독창적인 커스텀 인테리어. 당신의 공간에 맞는 맞춤형 디자인을 만나보세요."</t>
-  </si>
-  <si>
-    <t>베네스타: "베네스타와 함께하는 고급 주거 공간 프로젝트. 우아함과 고급스러움이 묻어나는 디자인."</t>
-  </si>
-  <si>
-    <t>하우스마일: "하우스마일의 에코 프렌들리 디자인 제품. 환경을 생각하는 지속 가능한 선택을 지금 만나보세요."</t>
-  </si>
-  <si>
-    <t>루담: "루담의 신규 인테리어 컬렉션 출시. 현대적 감각과 전통이 조화롭게 어우러진 디자인."</t>
-  </si>
-  <si>
-    <t>용테리어: "용테리어의 고객 감사 할인 이벤트. 이번 달 서비스 이용 시 특별 할인 혜택을 제공합니다."</t>
-  </si>
-  <si>
-    <t>디자인서우: "디자인서우와 함께하는 우아한 공간 재창조. 프리미엄 인테리어 디자인 서비스를 경험하세요."</t>
-  </si>
-  <si>
-    <t>모던홈인테리어: "모던홈인테리어의 신규 쇼룸 오픈. 최신 트렌드를 반영한 인테리어 솔루션을 직접 보고 느껴보세요."</t>
-  </si>
-  <si>
-    <t>디자인포맨: "디자인포맨의 신사의 공간을 위한 특별 제안. 고급스러운 맨즈 케이브 디자인을 만나보세요."</t>
-  </si>
-  <si>
-    <t>세원인테리어: "세원인테리어의 가정용 인테리어 제품 라인업 출시. 집안을 더 아름답게 꾸밀 수 있는 다양한 옵션을 제공합니다."</t>
-  </si>
-  <si>
-    <t>3.3디자인스페이스: "3.3디자인스페이스의 크리에이티브 인테리어 솔루션. 효율적이고 아름다운 공간을 설계하세요."</t>
-  </si>
-  <si>
-    <t>인디자인: "인디자인의 신제품 출시. 독창적이고 혁신적인 디자인을 통해 공간의 가능성을 재발견하세요."</t>
-  </si>
-  <si>
-    <t>디자인스윕: "디자인스윕의 가을 정리 할인 이벤트. 세련되고 실용적인 인테리어 제품을 특별 할인가에 만나보세요."</t>
-  </si>
-  <si>
-    <t>디자인스퀘어: "디자인스퀘어의 신규 디자인 스튜디오 오픈. 다양한 스타일의 인테리어를 한자리에서 경험하세요."</t>
-  </si>
-  <si>
-    <t>디케이메이크: "디케이메이크와 함께하는 개인 맞춤형 인테리어 디자인. 고객의 니즈에 완벽히 맞춘 서비스를 제공합니다."</t>
-  </si>
-  <si>
-    <t>와이디자인: "와이디자인의 최신 프로젝트 쇼케이스. 현대적인 디자인과 기능성을 겸비한 공간 솔루션을 확인하세요."</t>
-  </si>
-  <si>
     <t>수엔디자인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>수엔디자인은 고객들의 다양한 스타일과 취향을 반영한 특별한 디자인을 제공하는 인테리어 전문 업체입니다. 풍부한 경험과 전문성으로 여러분의 공간을 새롭게 변화시키겠습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수엔디자인: "수엔디자인의 스프링 리프레시 이벤트! 이번 봄에는 우리와 함께 당신의 공간을 새롭게 변화시켜 보세요. 맞춤 디자인 솔루션을 통해 집안의 분위기를 전환하고, 새로운 계절을 맞이하는 기분 좋은 변화를 경험하세요.</t>
   </si>
   <si>
     <t>소하1동, 양천구만 유의미한 주소입니다
 나머지는 검색해도 안 나오는 주소들 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수엔디자인의 스프링 리프레시 이벤트! 이번 봄에는 우리와 함께 당신의 공간을 새롭게 변화시켜 보세요. 맞춤 디자인 솔루션을 통해 집안의 분위기를 전환하고, 새로운 계절을 맞이하는 기분 좋은 변화를 경험하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024년 봄 인테리어 트렌드를 만나보세요! 새로운 디자인 컨셉과 함께 리모델링 프로젝트 시작하기.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 상담 예약하시고, 전문가와 함께하는 무료 인테리어 컨설팅 기회를 잡으세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경을 생각하는 지속 가능한 인테리어 솔루션을 제안합니다. 우리의 그린 인테리어 옵션을 확인하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞춤형 가구 제작 서비스 출시! 개인의 취향을 반영한 디자인으로 공간을 새롭게 꾸며보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리의 성실한 작업이 만든 결과물을 보러 오세요. 포트폴리오 업데이트 확인하기.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한샘리하우스의 새로운 협력 브랜드를 소개합니다! 더 많은 선택과 더 좋은 품질을 경험하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024년도 티엠디자인의 인기 디자인 트렌드 발표! 올해의 색상과 스타일을 미리 확인해 보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실내외 공간의 완벽한 변신을 위한 채운디자인의 봄 프로모션을 놓치지 마세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문가와 함께하는 집 꾸미기 워크샵에 참여하세요. 신청은 여기서!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈시크디자인과 함께하는 리노베이션으로 고급스러운 집안 분위기를 연출하세요. 프로젝트 시작하기.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 공간도 토미만의 아이디어로 넓게! 스마트 솔루션을 만나보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인파란의 새로운 시즌 리미티드 에디션 라인업을 만나보세요. 한정 수량 제공 중!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리바트와 함께하는 집안 재정비. 신규 가입 고객을 위한 특별 할인 이벤트!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이달의 디자인덕 포트폴리오 감상하기. 고객님의 공간도 저희가 변신시켜 드립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올리브인테리어의 신규 오피스 라인 출시! 업무 공간을 위한 현대적인 디자인을 체험하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간을 최적화하는 특별한 디자인 솔루션. 우리의 전문성을 경험해 보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후스인의 전통과 현대가 만나는 디자인. 한국적인 미를 강조한 인테리어를 만나보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에디인테리어와 함께하는 맞춤형 홈 스타일링 서비스. 지금 상담 예약하기!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건강을 생각하는 케일디자인의 친환경 소재 사용. 우리의 커밋먼트를 확인해 보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웰빙을 위한 인테리어, 웰가디자인이 제안하는 건강한 생활공간.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라포르인테리어의 최신 프로젝트를 감상하세요. 우아함과 실용성을 겸비한 디자인의 향연!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이케이디와 함께하는 공간 재구성 프로모션. 이번 기회를 놓치지 마세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모드니인테리어의 가을 시즌 특별 할인. 이번 주말 방문 예약 시 특별 선물이 기다립니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미라클인테리어에서 제공하는 한정판 디자인 제품을 만나보세요. 독특한 공간을 위한 독특한 선택!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인큐원의 새로운 라이프스타일 콜렉션 출시. 공간을 더 특별하게 만들어줄 디자인을 체험하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세나클디자인과 함께하는 홈 메이크오버. 집안 공간을 새롭게 탈바꿈시킬 시간입니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인그로우의 지속 가능한 인테리어 솔루션. 친환경적인 선택으로 더 나은 내일을 설계하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단한집디자인의 맞춤형 인테리어 패키지. 이번 달 한정 특가로 제공됩니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>톤앤무드의 새로운 컬러 팔레트로 공간에 생기를 불어넣어 보세요. 지금 컬러 상담 예약하기!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈채드디자인의 신규 스토어 오픈 기념 이벤트. 방문 고객에게 특별 할인 제공!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예설디자인의 제한된 시간 동안만 제공되는 전속 디자인 서비스. 예약은 서둘러 주세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더패키지로 완성하는 토탈 인테리어 솔루션. 풀 패키지 서비스에 대해 알아보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈앤안목과 함께하는 가을 맞이 인테리어 리노베이션. 이번 시즌 한정 할인을 놓치지 마세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리빙갤러리에서 선보이는 아트웍 컬렉션. 예술적 감각을 집안 곳곳에 더하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인하루의 24시간 디자인 마라톤! 한정된 시간 동안 무료 디자인 상담을 받아보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라온디자인의 신규 포트폴리오 공개. 우리의 최신 프로젝트를 확인하고 영감을 얻으세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수디자인의 새로운 홈 디자인 컨셉 출시. 현대적 감각의 공간을 경험하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카사디자인과 함께하는 거실 재디자인 프로모션. 한정된 기간 동안만 특별 할인가에 제공됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창대디자인의 인테리어 디자인 트렌드 세미나. 산업 전문가와 함께하는 무료 웨비나에 등록하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인테라스의 신규 런칭 이벤트. 첫 구매 고객에게는 특별 할인을 제공합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코어디자인의 겨울 시즌 신제품 라인업을 만나보세요. 따뜻한 집안 분위기를 위한 디자인 제안.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄인테리어에서 선보이는 봄맞이 리프레시 프로모션. 신선하고 화사한 봄 분위기를 느껴보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안도의 전통적인 디자인과 현대적 감각이 만나는 공간. 새로운 디자인 컬렉션을 확인하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라베디자인의 가을 신제품 출시. 감각적인 디자인으로 공간을 업그레이드하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인쮸들과 함께하는 키즈룸 스페셜 패키지. 아이들의 방을 특별하게 만들어주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박지희디자인의 프리미엄 디자인 서비스 체험기회. 고객 맞춤형 디자인을 경험해 보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와이디자인의 최신 프로젝트 쇼케이스. 현대적인 디자인과 기능성을 겸비한 공간 솔루션을 확인하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디케이메이크와 함께하는 개인 맞춤형 인테리어 디자인. 고객의 니즈에 완벽히 맞춘 서비스를 제공합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인스퀘어의 신규 디자인 스튜디오 오픈. 다양한 스타일의 인테리어를 한자리에서 경험하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인스윕의 가을 정리 할인 이벤트. 세련되고 실용적인 인테리어 제품을 특별 할인가에 만나보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인디자인의 신제품 출시. 독창적이고 혁신적인 디자인을 통해 공간의 가능성을 재발견하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3디자인스페이스의 크리에이티브 인테리어 솔루션. 효율적이고 아름다운 공간을 설계하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세원인테리어의 가정용 인테리어 제품 라인업 출시. 집안을 더 아름답게 꾸밀 수 있는 다양한 옵션을 제공합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인포맨의 신사의 공간을 위한 특별 제안. 고급스러운 맨즈 케이브 디자인을 만나보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모던홈인테리어의 신규 쇼룸 오픈. 최신 트렌드를 반영한 인테리어 솔루션을 직접 보고 느껴보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인서우와 함께하는 우아한 공간 재창조. 프리미엄 인테리어 디자인 서비스를 경험하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용테리어의 고객 감사 할인 이벤트. 이번 달 서비스 이용 시 특별 할인 혜택을 제공합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루담의 신규 인테리어 컬렉션 출시. 현대적 감각과 전통이 조화롭게 어우러진 디자인.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하우스마일의 에코 프렌들리 디자인 제품. 환경을 생각하는 지속 가능한 선택을 지금 만나보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베네스타와 함께하는 고급 주거 공간 프로젝트. 우아함과 고급스러움이 묻어나는 디자인.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디엠디자인의 독창적인 커스텀 인테리어. 당신의 공간에 맞는 맞춤형 디자인을 만나보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>터치홈의 스마트 홈 솔루션. 집안의 편리함을 한층 업그레이드하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드림하우스의 신규 프로젝트 발표. 창의적이고 혁신적인 공간 디자인을 만나보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리노디자인의 겨울 신제품 시리즈. 겨울에 어울리는 따뜻하고 아늑한 인테리어를 제공합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우아인테리어의 맞춤형 인테리어 디자인 제안. 개인의 취향을 완벽하게 반영한 공간을 만드세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제디자인과 함께하는 모던 홈 메이크오버. 고객의 공간을 현대적이고 실용적인 디자인으로 재탄생시키세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팰리스인테리어의 프리미엄 인테리어 디자인 서비스. 고급스러움을 더하는 우리의 전문성을 경험하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전인테리어의 새로운 프로젝트 소개. 최신 인테리어 트렌드와 함께 제공되는 신제품을 확인하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인멜로우의 신제품 라인업 출시. 신선하고 현대적인 디자인으로 새로운 기분을 느껴보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인그리다의 친환경 소재 사용 캠페인. 지속 가능한 소재로 만든 제품을 만나보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한솔하우징의 겨울맞이 집꾸미기 이벤트. 집안을 따뜻하게 만들어 줄 디자인 아이템을 확인하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이룸디자인의 맞춤형 공간 해결책. 개인의 요구에 맞춘 독특한 인테리어 솔루션을 제공합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가우디디자인의 아트 갤러리 시리즈. 예술적 영감을 받은 인테리어를 만나보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아름하우징의 시즌 오프 세일. 선택한 인테리어 패키지에 대해 특별 할인 혜택을 제공합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다람인테리어와 함께하는 소형 아파트 인테리어 전문 컨설팅. 작은 공간을 크게 사용하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴먼인테리어의 건강하고 편안한 생활공간 만들기. 에코-프렌들리 소재와 디자인을 경험하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아룸디자인의 인테리어 디자인 워크샵 참여 기회. 실내 디자인 기술을 직접 배워보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인조은의 신년 맞이 리모델링 패키지. 새해를 새롭게 시작하는 디자인 솔루션을 만나보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포츈디자인의 럭셔리 홈 컬렉션 출시. 집안을 럭셔리 리조트로 변모시켜 드립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큐브의 신규 파트너십과 협력 프로젝트 공개. 더 넓은 범위의 전문 서비스를 제공합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아우어디자인의 맞춤형 가구 및 인테리어 디자인 서비스. 당신의 공간을 위한 독창적인 솔루션을 제공합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동산인테리어의 가을 정원 디자인 서비스. 야외 공간을 더욱 특별하게 만들어 드립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다올디자인의 한정판 컬렉션 런칭. 이번 시즌에만 만날 수 있는 특별 디자인!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우일인테리어의 신규 분점 오픈 기념 할인 이벤트. 새로운 매장에서 특별한 혜택을 누려보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘크리트301과 함께하는 모던 아트 스타일 프로젝트. 독특한 맞춤 인테리어를 경험해 보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른인테리어의 인테리어 디자인 컨설팅 서비스. 전문가의 조언으로 공간을 최적화하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디티알디의 테크 인테리어 솔루션. 최신 기술을 활용한 집안 꾸미기를 소개합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리앤씨와 함께하는 럭셔리 홈 메이크오버. 귀하의 집을 호텔처럼 만들어 드립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더디자인의 연말 감사 이벤트. 올 한 해 동안의 성원에 감사드리며 특별 할인을 제공합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아크몽스튜디오의 전시회 개최 소식. 최신 작업들을 직접 만나볼 수 있는 기회!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신디자인의 신규 클라이언트를 위한 특별 프로모션. 프로젝트 시작하고 할인 혜택을 누리세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인이후의 포스트 모던 인테리어 시리즈. 과감하고 실험적인 디자인을 경험하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인홈즈의 새로운 홈 인테리어 앱 출시. 앱을 다운로드하고 특별 할인을 받으세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>156스페이스에서 제공하는 작은 공간을 위한 크리에이티브 솔루션. 공간 활용법을 배워보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더라이브러리의 아트 &amp; 디자인 책 전시회. 디자인에 대한 영감을 얻을 수 있는 기회!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인포스의 무료 홈 스타일링 서비스 체험. 집안을 전문가처럼 꾸미고 싶다면 지금 신청하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제스트디자인과 함께하는 맞춤형 가구 제작 서비스. 당신만의 공간을 완성하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정원인테리어의 겨울 정원 특별전. 겨울에도 빛나는 실내 정원 디자인을 소개합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에스디자인의 새로운 홈 오피스 디자인 아이디어. 집에서도 효율적으로 일할 수 있는 공간을 만드세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BH_NOTICE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1955,13 +2055,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A44FFF-DCDE-4990-B88F-B3E3DB67063E}">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="119.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="215.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="190" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="20.625" bestFit="1" customWidth="1"/>
@@ -1971,71 +2069,71 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2">
         <v>5001</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>424</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3">
         <v>5002</v>
@@ -2045,22 +2143,22 @@
     </row>
     <row r="4" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4">
         <v>5003</v>
@@ -2070,22 +2168,22 @@
     </row>
     <row r="5" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5">
         <v>5004</v>
@@ -2094,22 +2192,22 @@
     </row>
     <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6">
         <v>5005</v>
@@ -2118,22 +2216,22 @@
     </row>
     <row r="7" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7">
         <v>5006</v>
@@ -2149,22 +2247,22 @@
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8">
         <v>5007</v>
@@ -2180,22 +2278,22 @@
     </row>
     <row r="9" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <v>5008</v>
@@ -2211,22 +2309,22 @@
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>423</v>
+        <v>324</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>422</v>
+        <v>322</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>421</v>
+        <v>321</v>
       </c>
       <c r="D10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10">
         <v>5009</v>
@@ -2242,22 +2340,22 @@
     </row>
     <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11">
         <v>5010</v>
@@ -2273,22 +2371,22 @@
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G12">
         <v>5011</v>
@@ -2304,22 +2402,22 @@
     </row>
     <row r="13" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G13">
         <v>5012</v>
@@ -2335,22 +2433,22 @@
     </row>
     <row r="14" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G14">
         <v>5013</v>
@@ -2366,22 +2464,22 @@
     </row>
     <row r="15" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15">
         <v>5014</v>
@@ -2397,22 +2495,22 @@
     </row>
     <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
         <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
       </c>
       <c r="G16">
         <v>5015</v>
@@ -2428,22 +2526,22 @@
     </row>
     <row r="17" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G17">
         <v>5016</v>
@@ -2459,22 +2557,22 @@
     </row>
     <row r="18" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18">
         <v>5017</v>
@@ -2490,22 +2588,22 @@
     </row>
     <row r="19" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G19">
         <v>5018</v>
@@ -2517,22 +2615,22 @@
     </row>
     <row r="20" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20">
         <v>5019</v>
@@ -2540,22 +2638,22 @@
     </row>
     <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G21">
         <v>5020</v>
@@ -2563,22 +2661,22 @@
     </row>
     <row r="22" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G22">
         <v>5021</v>
@@ -2586,22 +2684,22 @@
     </row>
     <row r="23" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G23">
         <v>5022</v>
@@ -2609,22 +2707,22 @@
     </row>
     <row r="24" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G24">
         <v>5023</v>
@@ -2632,22 +2730,22 @@
     </row>
     <row r="25" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G25">
         <v>5024</v>
@@ -2655,22 +2753,22 @@
     </row>
     <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G26">
         <v>5025</v>
@@ -2678,22 +2776,22 @@
     </row>
     <row r="27" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G27">
         <v>5026</v>
@@ -2701,22 +2799,22 @@
     </row>
     <row r="28" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G28">
         <v>5027</v>
@@ -2724,22 +2822,22 @@
     </row>
     <row r="29" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G29">
         <v>5028</v>
@@ -2747,22 +2845,22 @@
     </row>
     <row r="30" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G30">
         <v>5029</v>
@@ -2770,22 +2868,22 @@
     </row>
     <row r="31" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G31">
         <v>5030</v>
@@ -2793,22 +2891,22 @@
     </row>
     <row r="32" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>5031</v>
@@ -2816,22 +2914,22 @@
     </row>
     <row r="33" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G33">
         <v>5032</v>
@@ -2839,22 +2937,22 @@
     </row>
     <row r="34" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G34">
         <v>5033</v>
@@ -2862,22 +2960,22 @@
     </row>
     <row r="35" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G35">
         <v>5034</v>
@@ -2885,22 +2983,22 @@
     </row>
     <row r="36" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G36">
         <v>5035</v>
@@ -2908,22 +3006,22 @@
     </row>
     <row r="37" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D37" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G37">
         <v>5036</v>
@@ -2931,22 +3029,22 @@
     </row>
     <row r="38" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G38">
         <v>5037</v>
@@ -2954,22 +3052,22 @@
     </row>
     <row r="39" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G39">
         <v>5038</v>
@@ -2977,22 +3075,22 @@
     </row>
     <row r="40" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G40">
         <v>5039</v>
@@ -3000,22 +3098,22 @@
     </row>
     <row r="41" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G41">
         <v>5040</v>
@@ -3023,22 +3121,22 @@
     </row>
     <row r="42" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G42">
         <v>5041</v>
@@ -3046,22 +3144,22 @@
     </row>
     <row r="43" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G43">
         <v>5042</v>
@@ -3069,22 +3167,22 @@
     </row>
     <row r="44" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G44">
         <v>5043</v>
@@ -3092,22 +3190,22 @@
     </row>
     <row r="45" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G45">
         <v>5044</v>
@@ -3115,22 +3213,22 @@
     </row>
     <row r="46" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G46">
         <v>5045</v>
@@ -3138,22 +3236,22 @@
     </row>
     <row r="47" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D47" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G47">
         <v>5046</v>
@@ -3161,22 +3259,22 @@
     </row>
     <row r="48" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D48" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G48">
         <v>5047</v>
@@ -3184,22 +3282,22 @@
     </row>
     <row r="49" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>368</v>
+        <v>423</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G49">
         <v>5048</v>
@@ -3207,22 +3305,22 @@
     </row>
     <row r="50" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>369</v>
+        <v>422</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D50" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G50">
         <v>5049</v>
@@ -3230,22 +3328,22 @@
     </row>
     <row r="51" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>370</v>
+        <v>421</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G51">
         <v>5050</v>
@@ -3253,22 +3351,22 @@
     </row>
     <row r="52" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>371</v>
+        <v>420</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D52" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G52">
         <v>5051</v>
@@ -3276,22 +3374,22 @@
     </row>
     <row r="53" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>372</v>
+        <v>419</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G53">
         <v>5052</v>
@@ -3299,22 +3397,22 @@
     </row>
     <row r="54" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G54">
         <v>5053</v>
@@ -3322,22 +3420,22 @@
     </row>
     <row r="55" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G55">
         <v>5054</v>
@@ -3345,22 +3443,22 @@
     </row>
     <row r="56" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G56">
         <v>5055</v>
@@ -3368,22 +3466,22 @@
     </row>
     <row r="57" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G57">
         <v>5056</v>
@@ -3391,22 +3489,22 @@
     </row>
     <row r="58" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G58">
         <v>5057</v>
@@ -3414,22 +3512,22 @@
     </row>
     <row r="59" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D59" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G59">
         <v>5058</v>
@@ -3437,22 +3535,22 @@
     </row>
     <row r="60" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D60" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G60">
         <v>5059</v>
@@ -3460,22 +3558,22 @@
     </row>
     <row r="61" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D61" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G61">
         <v>5060</v>
@@ -3483,22 +3581,22 @@
     </row>
     <row r="62" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D62" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G62">
         <v>5061</v>
@@ -3506,22 +3604,22 @@
     </row>
     <row r="63" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>382</v>
+        <v>409</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D63" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G63">
         <v>5062</v>
@@ -3529,22 +3627,22 @@
     </row>
     <row r="64" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D64" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G64">
         <v>5063</v>
@@ -3552,22 +3650,22 @@
     </row>
     <row r="65" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G65">
         <v>5064</v>
@@ -3575,22 +3673,22 @@
     </row>
     <row r="66" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D66" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G66">
         <v>5065</v>
@@ -3598,22 +3696,22 @@
     </row>
     <row r="67" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F67" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G67">
         <v>5066</v>
@@ -3621,22 +3719,22 @@
     </row>
     <row r="68" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D68" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G68">
         <v>5067</v>
@@ -3644,22 +3742,22 @@
     </row>
     <row r="69" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D69" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G69">
         <v>5068</v>
@@ -3667,22 +3765,22 @@
     </row>
     <row r="70" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D70" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G70">
         <v>5069</v>
@@ -3690,22 +3788,22 @@
     </row>
     <row r="71" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D71" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G71">
         <v>5070</v>
@@ -3713,22 +3811,22 @@
     </row>
     <row r="72" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D72" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G72">
         <v>5071</v>
@@ -3736,22 +3834,22 @@
     </row>
     <row r="73" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G73">
         <v>5072</v>
@@ -3759,22 +3857,22 @@
     </row>
     <row r="74" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D74" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G74">
         <v>5073</v>
@@ -3782,22 +3880,22 @@
     </row>
     <row r="75" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D75" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F75" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G75">
         <v>5074</v>
@@ -3805,22 +3903,22 @@
     </row>
     <row r="76" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D76" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F76" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G76">
         <v>5075</v>
@@ -3828,22 +3926,22 @@
     </row>
     <row r="77" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D77" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G77">
         <v>5076</v>
@@ -3851,22 +3949,22 @@
     </row>
     <row r="78" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D78" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G78">
         <v>5077</v>
@@ -3874,22 +3972,22 @@
     </row>
     <row r="79" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D79" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G79">
         <v>5078</v>
@@ -3897,22 +3995,22 @@
     </row>
     <row r="80" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D80" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G80">
         <v>5079</v>
@@ -3920,22 +4018,22 @@
     </row>
     <row r="81" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D81" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G81">
         <v>5080</v>
@@ -3943,22 +4041,22 @@
     </row>
     <row r="82" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D82" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F82" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G82">
         <v>5081</v>
@@ -3966,22 +4064,22 @@
     </row>
     <row r="83" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D83" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G83">
         <v>5082</v>
@@ -3989,22 +4087,22 @@
     </row>
     <row r="84" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D84" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F84" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G84">
         <v>5083</v>
@@ -4012,22 +4110,22 @@
     </row>
     <row r="85" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D85" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G85">
         <v>5084</v>
@@ -4035,22 +4133,22 @@
     </row>
     <row r="86" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D86" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G86">
         <v>5085</v>
@@ -4058,22 +4156,22 @@
     </row>
     <row r="87" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D87" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F87" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G87">
         <v>5086</v>
@@ -4081,22 +4179,22 @@
     </row>
     <row r="88" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D88" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F88" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G88">
         <v>5087</v>
@@ -4104,22 +4202,22 @@
     </row>
     <row r="89" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D89" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F89" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G89">
         <v>5088</v>
@@ -4127,22 +4225,22 @@
     </row>
     <row r="90" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D90" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F90" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G90">
         <v>5089</v>
@@ -4150,22 +4248,22 @@
     </row>
     <row r="91" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D91" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F91" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G91">
         <v>5090</v>
@@ -4173,22 +4271,22 @@
     </row>
     <row r="92" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>411</v>
+        <v>380</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D92" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F92" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G92">
         <v>5091</v>
@@ -4196,22 +4294,22 @@
     </row>
     <row r="93" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D93" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G93">
         <v>5092</v>
@@ -4219,22 +4317,22 @@
     </row>
     <row r="94" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D94" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F94" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G94">
         <v>5093</v>
@@ -4242,22 +4340,22 @@
     </row>
     <row r="95" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D95" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G95">
         <v>5094</v>
@@ -4265,22 +4363,22 @@
     </row>
     <row r="96" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D96" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F96" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G96">
         <v>5095</v>
@@ -4288,22 +4386,22 @@
     </row>
     <row r="97" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>416</v>
+        <v>375</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G97">
         <v>5096</v>
@@ -4311,22 +4409,22 @@
     </row>
     <row r="98" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>417</v>
+        <v>374</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D98" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F98" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G98">
         <v>5097</v>
@@ -4334,22 +4432,22 @@
     </row>
     <row r="99" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>418</v>
+        <v>373</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G99">
         <v>5098</v>
@@ -4357,22 +4455,22 @@
     </row>
     <row r="100" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>419</v>
+        <v>372</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D100" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E100" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G100">
         <v>5099</v>
@@ -4380,22 +4478,22 @@
     </row>
     <row r="101" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>420</v>
+        <v>371</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D101" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G101">
         <v>5100</v>

--- a/interiorinfo.xlsx
+++ b/interiorinfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97ce27d4fc196741/바탕 화면/interiorbara_sql/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goott4\Desktop\interiorbara_sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="270" documentId="8_{3659A8C8-711C-4365-905F-8C0011834842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7506E81-9E76-47E0-8311-DFE9A3C3D5FB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF33EEF2-E788-4DD1-8A4D-BD0E4741B168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88FA12BE-D73E-44D1-B7B5-5BCCD1D4F99A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88FA12BE-D73E-44D1-B7B5-5BCCD1D4F99A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="526">
   <si>
     <t>BH_INTRO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1612,6 +1610,310 @@
   <si>
     <t>BH_NOTICE</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BH_IMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블리자인.jpg</t>
+  </si>
+  <si>
+    <t>홈 루덴스.jpg</t>
+  </si>
+  <si>
+    <t>디자인이음새.jpg</t>
+  </si>
+  <si>
+    <t>필로스디자인.jpg</t>
+  </si>
+  <si>
+    <t>디자인,성실한.jpg</t>
+  </si>
+  <si>
+    <t>한샘리하우스.jpg</t>
+  </si>
+  <si>
+    <t>티엠디자인.jpg</t>
+  </si>
+  <si>
+    <t>채운디자인.jpg</t>
+  </si>
+  <si>
+    <t>수엔디자인.jpg</t>
+  </si>
+  <si>
+    <t>홈새로이.jpg</t>
+  </si>
+  <si>
+    <t>홈시크디자인.jpg</t>
+  </si>
+  <si>
+    <t>디자인토미.jpg</t>
+  </si>
+  <si>
+    <t>디자인파란.jpg</t>
+  </si>
+  <si>
+    <t>리바트.jpg</t>
+  </si>
+  <si>
+    <t>디자인덕.jpg</t>
+  </si>
+  <si>
+    <t>올리브인테리어.jpg</t>
+  </si>
+  <si>
+    <t>공간이좋다.jpg</t>
+  </si>
+  <si>
+    <t>후스인.jpg</t>
+  </si>
+  <si>
+    <t>케일디자인.jpg</t>
+  </si>
+  <si>
+    <t>에디인테리어.jpg</t>
+  </si>
+  <si>
+    <t>웰가디자인.jpg</t>
+  </si>
+  <si>
+    <t>라포르인테리어.jpg</t>
+  </si>
+  <si>
+    <t>아이케이디.jpg</t>
+  </si>
+  <si>
+    <t>모드니인테리어.jpg</t>
+  </si>
+  <si>
+    <t>미라클인테리어.jpg</t>
+  </si>
+  <si>
+    <t>디자인큐원.jpg</t>
+  </si>
+  <si>
+    <t>세나클디자인.jpg</t>
+  </si>
+  <si>
+    <t>디자인그로우.jpg</t>
+  </si>
+  <si>
+    <t>단한집디자인.jpg</t>
+  </si>
+  <si>
+    <t>톤앤무드.jpg</t>
+  </si>
+  <si>
+    <t>빈채드디자인.jpg</t>
+  </si>
+  <si>
+    <t>예설디자인.jpg</t>
+  </si>
+  <si>
+    <t>더패키지.jpg</t>
+  </si>
+  <si>
+    <t>홈앤안목.jpg</t>
+  </si>
+  <si>
+    <t>리빙갤러리.jpg</t>
+  </si>
+  <si>
+    <t>디자인하루.jpg</t>
+  </si>
+  <si>
+    <t>라온디자인.jpg</t>
+  </si>
+  <si>
+    <t>수디자인.jpg</t>
+  </si>
+  <si>
+    <t>카사디자인.jpg</t>
+  </si>
+  <si>
+    <t>창대디자인.jpg</t>
+  </si>
+  <si>
+    <t>인테라스.jpg</t>
+  </si>
+  <si>
+    <t>코어디자인.jpg</t>
+  </si>
+  <si>
+    <t>봄인테리어.jpg</t>
+  </si>
+  <si>
+    <t>안도.jpg</t>
+  </si>
+  <si>
+    <t>라베디자인.jpg</t>
+  </si>
+  <si>
+    <t>디자인쮸들.jpg</t>
+  </si>
+  <si>
+    <t>박지희디자인.jpg</t>
+  </si>
+  <si>
+    <t>에스디자인.jpg</t>
+  </si>
+  <si>
+    <t>정원인테리어.jpg</t>
+  </si>
+  <si>
+    <t>제스트디자인.jpg</t>
+  </si>
+  <si>
+    <t>디자인포스.jpg</t>
+  </si>
+  <si>
+    <t>더라이브러리.jpg</t>
+  </si>
+  <si>
+    <t>156스페이스.jpg</t>
+  </si>
+  <si>
+    <t>디자인홈즈.jpg</t>
+  </si>
+  <si>
+    <t>디자인이후.jpg</t>
+  </si>
+  <si>
+    <t>신디자인.jpg</t>
+  </si>
+  <si>
+    <t>아크몽스튜디오.jpg</t>
+  </si>
+  <si>
+    <t>더디자인.jpg</t>
+  </si>
+  <si>
+    <t>리앤씨.jpg</t>
+  </si>
+  <si>
+    <t>디티알디.jpg</t>
+  </si>
+  <si>
+    <t>오른인테리어.jpg</t>
+  </si>
+  <si>
+    <t>콘크리트301.jpg</t>
+  </si>
+  <si>
+    <t>우일인테리어.jpg</t>
+  </si>
+  <si>
+    <t>다올디자인.jpg</t>
+  </si>
+  <si>
+    <t>동산인테리어.jpg</t>
+  </si>
+  <si>
+    <t>아우어디자인.jpg</t>
+  </si>
+  <si>
+    <t>주식회사큐브.jpg</t>
+  </si>
+  <si>
+    <t>포츈디자인.jpg</t>
+  </si>
+  <si>
+    <t>디자인조은.jpg</t>
+  </si>
+  <si>
+    <t>아룸디자인.jpg</t>
+  </si>
+  <si>
+    <t>휴먼인테리어.jpg</t>
+  </si>
+  <si>
+    <t>다람인테리어.jpg</t>
+  </si>
+  <si>
+    <t>아름하우징.jpg</t>
+  </si>
+  <si>
+    <t>가우디디자인.jpg</t>
+  </si>
+  <si>
+    <t>이룸디자인.jpg</t>
+  </si>
+  <si>
+    <t>한솔하우징.jpg</t>
+  </si>
+  <si>
+    <t>디자인그리다.jpg</t>
+  </si>
+  <si>
+    <t>디자인멜로우.jpg</t>
+  </si>
+  <si>
+    <t>전인테리어.jpg</t>
+  </si>
+  <si>
+    <t>팰리스인테리어.jpg</t>
+  </si>
+  <si>
+    <t>이제디자인.jpg</t>
+  </si>
+  <si>
+    <t>우아인테리어.jpg</t>
+  </si>
+  <si>
+    <t>리노디자인.jpg</t>
+  </si>
+  <si>
+    <t>드림하우스.jpg</t>
+  </si>
+  <si>
+    <t>터치홈.jpg</t>
+  </si>
+  <si>
+    <t>디엠디자인.jpg</t>
+  </si>
+  <si>
+    <t>베네스타.jpg</t>
+  </si>
+  <si>
+    <t>하우스마일.jpg</t>
+  </si>
+  <si>
+    <t>루담.jpg</t>
+  </si>
+  <si>
+    <t>용테리어.jpg</t>
+  </si>
+  <si>
+    <t>디자인서우.jpg</t>
+  </si>
+  <si>
+    <t>모던홈인테리어.jpg</t>
+  </si>
+  <si>
+    <t>디자인포맨.jpg</t>
+  </si>
+  <si>
+    <t>세원인테리어.jpg</t>
+  </si>
+  <si>
+    <t>3.3디자인스페이스.jpg</t>
+  </si>
+  <si>
+    <t>인디자인.jpg</t>
+  </si>
+  <si>
+    <t>디자인스윕.jpg</t>
+  </si>
+  <si>
+    <t>디자인스퀘어.jpg</t>
+  </si>
+  <si>
+    <t>디케이메이크.jpg</t>
+  </si>
+  <si>
+    <t>와이디자인.jpg</t>
   </si>
 </sst>
 </file>
@@ -2055,7 +2357,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A44FFF-DCDE-4990-B88F-B3E3DB67063E}">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2064,6 +2368,7 @@
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="20.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="37.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2089,6 +2394,9 @@
       <c r="G1" t="s">
         <v>113</v>
       </c>
+      <c r="H1" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="2" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2112,6 +2420,9 @@
       <c r="G2">
         <v>5001</v>
       </c>
+      <c r="H2" t="s">
+        <v>426</v>
+      </c>
       <c r="L2" s="9" t="s">
         <v>323</v>
       </c>
@@ -2138,6 +2449,9 @@
       <c r="G3">
         <v>5002</v>
       </c>
+      <c r="H3" t="s">
+        <v>427</v>
+      </c>
       <c r="L3" s="9"/>
       <c r="N3" s="3"/>
     </row>
@@ -2163,6 +2477,9 @@
       <c r="G4">
         <v>5003</v>
       </c>
+      <c r="H4" t="s">
+        <v>428</v>
+      </c>
       <c r="L4" s="9"/>
       <c r="N4" s="2"/>
     </row>
@@ -2188,6 +2505,9 @@
       <c r="G5">
         <v>5004</v>
       </c>
+      <c r="H5" t="s">
+        <v>429</v>
+      </c>
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
@@ -2212,6 +2532,9 @@
       <c r="G6">
         <v>5005</v>
       </c>
+      <c r="H6" t="s">
+        <v>430</v>
+      </c>
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
@@ -2236,6 +2559,9 @@
       <c r="G7">
         <v>5006</v>
       </c>
+      <c r="H7" t="s">
+        <v>431</v>
+      </c>
       <c r="L7" s="8" t="str">
         <f>E2</f>
         <v>경기 남양주시 진접읍</v>
@@ -2267,6 +2593,9 @@
       <c r="G8">
         <v>5007</v>
       </c>
+      <c r="H8" t="s">
+        <v>432</v>
+      </c>
       <c r="L8" s="8" t="str">
         <f>E3</f>
         <v>경기 광명시 소하1동</v>
@@ -2298,6 +2627,9 @@
       <c r="G9">
         <v>5008</v>
       </c>
+      <c r="H9" t="s">
+        <v>433</v>
+      </c>
       <c r="L9" s="8" t="str">
         <f t="shared" ref="L9:L18" si="1">E4</f>
         <v>서울 구로구</v>
@@ -2329,6 +2661,9 @@
       <c r="G10">
         <v>5009</v>
       </c>
+      <c r="H10" t="s">
+        <v>434</v>
+      </c>
       <c r="L10" s="8" t="str">
         <f>E90</f>
         <v>서울 강서구</v>
@@ -2360,6 +2695,9 @@
       <c r="G11">
         <v>5010</v>
       </c>
+      <c r="H11" t="s">
+        <v>435</v>
+      </c>
       <c r="L11" s="8" t="str">
         <f>E19</f>
         <v>서울 노원구</v>
@@ -2391,6 +2729,9 @@
       <c r="G12">
         <v>5011</v>
       </c>
+      <c r="H12" t="s">
+        <v>436</v>
+      </c>
       <c r="L12" s="8" t="str">
         <f t="shared" si="1"/>
         <v>서울 관악구</v>
@@ -2422,6 +2763,9 @@
       <c r="G13">
         <v>5012</v>
       </c>
+      <c r="H13" t="s">
+        <v>437</v>
+      </c>
       <c r="L13" s="8" t="str">
         <f t="shared" si="1"/>
         <v>경기 고양시 일산서구</v>
@@ -2453,6 +2797,9 @@
       <c r="G14">
         <v>5013</v>
       </c>
+      <c r="H14" t="s">
+        <v>438</v>
+      </c>
       <c r="L14" s="8" t="str">
         <f t="shared" si="1"/>
         <v>서울 종로구</v>
@@ -2484,6 +2831,9 @@
       <c r="G15">
         <v>5014</v>
       </c>
+      <c r="H15" t="s">
+        <v>439</v>
+      </c>
       <c r="L15" s="8" t="str">
         <f>E35</f>
         <v>경기 고양시 덕양구</v>
@@ -2515,6 +2865,9 @@
       <c r="G16">
         <v>5015</v>
       </c>
+      <c r="H16" t="s">
+        <v>440</v>
+      </c>
       <c r="L16" s="8" t="str">
         <f>E67</f>
         <v>서울 영등포구</v>
@@ -2546,6 +2899,9 @@
       <c r="G17">
         <v>5016</v>
       </c>
+      <c r="H17" t="s">
+        <v>441</v>
+      </c>
       <c r="L17" s="8" t="str">
         <f t="shared" si="1"/>
         <v>경기 안양시 동안구</v>
@@ -2577,6 +2933,9 @@
       <c r="G18">
         <v>5017</v>
       </c>
+      <c r="H18" t="s">
+        <v>442</v>
+      </c>
       <c r="L18" s="8" t="str">
         <f t="shared" si="1"/>
         <v>서울 양천구</v>
@@ -2608,6 +2967,9 @@
       <c r="G19">
         <v>5018</v>
       </c>
+      <c r="H19" t="s">
+        <v>443</v>
+      </c>
       <c r="N19">
         <f>SUM(N7:N18)</f>
         <v>100</v>
@@ -2635,6 +2997,9 @@
       <c r="G20">
         <v>5019</v>
       </c>
+      <c r="H20" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -2658,6 +3023,9 @@
       <c r="G21">
         <v>5020</v>
       </c>
+      <c r="H21" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="22" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
@@ -2681,6 +3049,9 @@
       <c r="G22">
         <v>5021</v>
       </c>
+      <c r="H22" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="23" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
@@ -2704,6 +3075,9 @@
       <c r="G23">
         <v>5022</v>
       </c>
+      <c r="H23" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="24" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -2727,6 +3101,9 @@
       <c r="G24">
         <v>5023</v>
       </c>
+      <c r="H24" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="25" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -2750,6 +3127,9 @@
       <c r="G25">
         <v>5024</v>
       </c>
+      <c r="H25" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
@@ -2773,6 +3153,9 @@
       <c r="G26">
         <v>5025</v>
       </c>
+      <c r="H26" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="27" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
@@ -2796,6 +3179,9 @@
       <c r="G27">
         <v>5026</v>
       </c>
+      <c r="H27" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="28" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
@@ -2819,6 +3205,9 @@
       <c r="G28">
         <v>5027</v>
       </c>
+      <c r="H28" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="29" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
@@ -2842,6 +3231,9 @@
       <c r="G29">
         <v>5028</v>
       </c>
+      <c r="H29" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="30" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
@@ -2865,6 +3257,9 @@
       <c r="G30">
         <v>5029</v>
       </c>
+      <c r="H30" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="31" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
@@ -2888,6 +3283,9 @@
       <c r="G31">
         <v>5030</v>
       </c>
+      <c r="H31" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="32" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
@@ -2911,8 +3309,11 @@
       <c r="G32">
         <v>5031</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>355</v>
       </c>
@@ -2934,8 +3335,11 @@
       <c r="G33">
         <v>5032</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>356</v>
       </c>
@@ -2957,8 +3361,11 @@
       <c r="G34">
         <v>5033</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>357</v>
       </c>
@@ -2980,8 +3387,11 @@
       <c r="G35">
         <v>5034</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>358</v>
       </c>
@@ -3003,8 +3413,11 @@
       <c r="G36">
         <v>5035</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>359</v>
       </c>
@@ -3026,8 +3439,11 @@
       <c r="G37">
         <v>5036</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>360</v>
       </c>
@@ -3049,8 +3465,11 @@
       <c r="G38">
         <v>5037</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H38" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>361</v>
       </c>
@@ -3072,8 +3491,11 @@
       <c r="G39">
         <v>5038</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H39" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>362</v>
       </c>
@@ -3095,8 +3517,11 @@
       <c r="G40">
         <v>5039</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H40" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>363</v>
       </c>
@@ -3118,8 +3543,11 @@
       <c r="G41">
         <v>5040</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H41" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>364</v>
       </c>
@@ -3141,8 +3569,11 @@
       <c r="G42">
         <v>5041</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H42" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>365</v>
       </c>
@@ -3164,8 +3595,11 @@
       <c r="G43">
         <v>5042</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H43" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>366</v>
       </c>
@@ -3187,8 +3621,11 @@
       <c r="G44">
         <v>5043</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H44" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>367</v>
       </c>
@@ -3210,8 +3647,11 @@
       <c r="G45">
         <v>5044</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H45" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>368</v>
       </c>
@@ -3233,8 +3673,11 @@
       <c r="G46">
         <v>5045</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H46" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>369</v>
       </c>
@@ -3256,8 +3699,11 @@
       <c r="G47">
         <v>5046</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H47" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>370</v>
       </c>
@@ -3279,8 +3725,11 @@
       <c r="G48">
         <v>5047</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H48" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>423</v>
       </c>
@@ -3302,8 +3751,11 @@
       <c r="G49">
         <v>5048</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H49" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>422</v>
       </c>
@@ -3325,8 +3777,11 @@
       <c r="G50">
         <v>5049</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H50" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>421</v>
       </c>
@@ -3348,8 +3803,11 @@
       <c r="G51">
         <v>5050</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H51" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>420</v>
       </c>
@@ -3371,8 +3829,11 @@
       <c r="G52">
         <v>5051</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H52" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>419</v>
       </c>
@@ -3394,8 +3855,11 @@
       <c r="G53">
         <v>5052</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H53" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>418</v>
       </c>
@@ -3417,8 +3881,11 @@
       <c r="G54">
         <v>5053</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H54" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>417</v>
       </c>
@@ -3440,8 +3907,11 @@
       <c r="G55">
         <v>5054</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H55" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>416</v>
       </c>
@@ -3463,8 +3933,11 @@
       <c r="G56">
         <v>5055</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H56" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>415</v>
       </c>
@@ -3486,8 +3959,11 @@
       <c r="G57">
         <v>5056</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H57" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>414</v>
       </c>
@@ -3509,8 +3985,11 @@
       <c r="G58">
         <v>5057</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H58" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>413</v>
       </c>
@@ -3532,8 +4011,11 @@
       <c r="G59">
         <v>5058</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H59" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>412</v>
       </c>
@@ -3555,8 +4037,11 @@
       <c r="G60">
         <v>5059</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H60" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>411</v>
       </c>
@@ -3578,8 +4063,11 @@
       <c r="G61">
         <v>5060</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H61" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>410</v>
       </c>
@@ -3601,8 +4089,11 @@
       <c r="G62">
         <v>5061</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H62" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>409</v>
       </c>
@@ -3624,8 +4115,11 @@
       <c r="G63">
         <v>5062</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H63" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>408</v>
       </c>
@@ -3647,8 +4141,11 @@
       <c r="G64">
         <v>5063</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H64" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>407</v>
       </c>
@@ -3670,8 +4167,11 @@
       <c r="G65">
         <v>5064</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H65" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>406</v>
       </c>
@@ -3693,8 +4193,11 @@
       <c r="G66">
         <v>5065</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H66" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>405</v>
       </c>
@@ -3716,8 +4219,11 @@
       <c r="G67">
         <v>5066</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H67" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>404</v>
       </c>
@@ -3739,8 +4245,11 @@
       <c r="G68">
         <v>5067</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H68" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>403</v>
       </c>
@@ -3762,8 +4271,11 @@
       <c r="G69">
         <v>5068</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H69" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>402</v>
       </c>
@@ -3785,8 +4297,11 @@
       <c r="G70">
         <v>5069</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H70" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>401</v>
       </c>
@@ -3808,8 +4323,11 @@
       <c r="G71">
         <v>5070</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H71" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>400</v>
       </c>
@@ -3831,8 +4349,11 @@
       <c r="G72">
         <v>5071</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H72" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>399</v>
       </c>
@@ -3854,8 +4375,11 @@
       <c r="G73">
         <v>5072</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H73" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>398</v>
       </c>
@@ -3877,8 +4401,11 @@
       <c r="G74">
         <v>5073</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H74" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>397</v>
       </c>
@@ -3900,8 +4427,11 @@
       <c r="G75">
         <v>5074</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H75" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>396</v>
       </c>
@@ -3923,8 +4453,11 @@
       <c r="G76">
         <v>5075</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H76" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>395</v>
       </c>
@@ -3946,8 +4479,11 @@
       <c r="G77">
         <v>5076</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H77" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>394</v>
       </c>
@@ -3969,8 +4505,11 @@
       <c r="G78">
         <v>5077</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H78" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>393</v>
       </c>
@@ -3992,8 +4531,11 @@
       <c r="G79">
         <v>5078</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H79" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>392</v>
       </c>
@@ -4015,8 +4557,11 @@
       <c r="G80">
         <v>5079</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H80" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>391</v>
       </c>
@@ -4038,8 +4583,11 @@
       <c r="G81">
         <v>5080</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H81" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>390</v>
       </c>
@@ -4061,8 +4609,11 @@
       <c r="G82">
         <v>5081</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H82" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>389</v>
       </c>
@@ -4084,8 +4635,11 @@
       <c r="G83">
         <v>5082</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H83" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>388</v>
       </c>
@@ -4107,8 +4661,11 @@
       <c r="G84">
         <v>5083</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H84" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>387</v>
       </c>
@@ -4130,8 +4687,11 @@
       <c r="G85">
         <v>5084</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H85" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>386</v>
       </c>
@@ -4153,8 +4713,11 @@
       <c r="G86">
         <v>5085</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H86" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>385</v>
       </c>
@@ -4176,8 +4739,11 @@
       <c r="G87">
         <v>5086</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H87" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>384</v>
       </c>
@@ -4199,8 +4765,11 @@
       <c r="G88">
         <v>5087</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H88" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>383</v>
       </c>
@@ -4222,8 +4791,11 @@
       <c r="G89">
         <v>5088</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H89" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>382</v>
       </c>
@@ -4245,8 +4817,11 @@
       <c r="G90">
         <v>5089</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H90" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>381</v>
       </c>
@@ -4268,8 +4843,11 @@
       <c r="G91">
         <v>5090</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H91" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>380</v>
       </c>
@@ -4291,8 +4869,11 @@
       <c r="G92">
         <v>5091</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H92" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>379</v>
       </c>
@@ -4314,8 +4895,11 @@
       <c r="G93">
         <v>5092</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H93" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>378</v>
       </c>
@@ -4337,8 +4921,11 @@
       <c r="G94">
         <v>5093</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H94" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>377</v>
       </c>
@@ -4360,8 +4947,11 @@
       <c r="G95">
         <v>5094</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H95" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>376</v>
       </c>
@@ -4383,8 +4973,11 @@
       <c r="G96">
         <v>5095</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H96" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>375</v>
       </c>
@@ -4406,8 +4999,11 @@
       <c r="G97">
         <v>5096</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H97" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>374</v>
       </c>
@@ -4429,8 +5025,11 @@
       <c r="G98">
         <v>5097</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H98" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>373</v>
       </c>
@@ -4452,8 +5051,11 @@
       <c r="G99">
         <v>5098</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H99" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>372</v>
       </c>
@@ -4475,8 +5077,11 @@
       <c r="G100">
         <v>5099</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H100" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>371</v>
       </c>
@@ -4497,6 +5102,9 @@
       </c>
       <c r="G101">
         <v>5100</v>
+      </c>
+      <c r="H101" t="s">
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -4505,5 +5113,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/interiorinfo.xlsx
+++ b/interiorinfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goott4\Desktop\interiorbara_sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF33EEF2-E788-4DD1-8A4D-BD0E4741B168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA96B6B6-FD07-4106-8DA6-829C18712E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88FA12BE-D73E-44D1-B7B5-5BCCD1D4F99A}"/>
+    <workbookView xWindow="28785" yWindow="0" windowWidth="14370" windowHeight="15585" xr2:uid="{88FA12BE-D73E-44D1-B7B5-5BCCD1D4F99A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2357,8 +2357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A44FFF-DCDE-4990-B88F-B3E3DB67063E}">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
